--- a/pred_ohlcv/54_21/2019-11-02 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 LOOM ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>114452.0950999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>114352.0950999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>114362.0950999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-254158.8958000001</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-159311.0947</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-195219.7667</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-195209.7667</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-176230.4332</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-131394.9815</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-129985.1601</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-129985.1601</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-131025.1601</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-134825.31</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-134815.31</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-266066.1444000001</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-266066.1444000001</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-293190.8819000001</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-293190.8819000001</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-293190.8819000001</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-293190.8819000001</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-293190.8819000001</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-293190.8819000001</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-336123.9941000001</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-333681.3754000001</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-314174.3754000001</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-337007.9903000001</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-337007.9903000001</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-337007.9903000001</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-337007.9903000001</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-332331.7930000001</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-332331.7930000001</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-332331.7930000001</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-346931.7930000001</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-374135.8389000001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-379029.4427000001</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-378959.4427000001</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-378959.4427000001</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-378509.4427000001</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-374981.9246000001</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-374981.9246000001</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-374971.9246000001</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 LOOM ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>114452.0950999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>114352.0950999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>114362.0950999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-131394.9815</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-129985.1601</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-129985.1601</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-131025.1601</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-134825.31</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-134815.31</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-337007.9903000001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-340734.3603000001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-332331.7930000001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-332331.7930000001</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-332331.7930000001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-346931.7930000001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-374125.8389000001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-379019.4427000001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-379029.4427000001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-378959.4427000001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-378959.4427000001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-378569.4427000001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-378509.4427000001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-374961.9246000001</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-374981.9246000001</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-374981.9246000001</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-374971.9246000001</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-359671.9246000001</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-359681.9246000001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-359591.9246000001</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-307587.2013000001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-307687.2013000001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-307687.2013000001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-259344.2271000001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-372778.5736000001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
